--- a/fake_data_2.xlsx
+++ b/fake_data_2.xlsx
@@ -446,1807 +446,1807 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>address</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rebecca Gross</t>
+          <t>Valerie Kim</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xdelgado@example.org</t>
+          <t>james56@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23093 Collins Well Apt. 005
-Christopherburgh, PR 35990</t>
+          <t>23784 Ashley Stream
+Jacksonfort, MH 51092</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amanda Scott</t>
+          <t>Kimberly Black</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>whiteleah@example.org</t>
+          <t>clarktonya@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18624 Todd Fords
-Millerhaven, AS 45900</t>
+          <t>86255 Figueroa Light Apt. 503
+Natashashire, IL 51552</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jon Campbell</t>
+          <t>Nicholas Wilkerson DDS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>scottcarol@example.com</t>
+          <t>stevenmccoy@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>670 Pamela Green Apt. 848
-Hansenview, TX 77193</t>
+          <t>458 Nicole Port Suite 757
+Lisafurt, UT 73956</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sarah Wells</t>
+          <t>Keith Bentley</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ronnie13@example.net</t>
+          <t>duranwilliam@example.net</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9121 Jackson Road
-Lake Steven, IA 49587</t>
+          <t>6919 King Station
+South Mariafurt, KY 75338</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elizabeth Abbott</t>
+          <t>Ronald Lester</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>hvazquez@example.net</t>
+          <t>bartlettpeter@example.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>677 Sutton Wall Apt. 734
-North Randy, NY 40634</t>
+          <t>2656 David Tunnel Suite 334
+East Jennyside, SC 97406</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amy Nielsen</t>
+          <t>George Santos</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nconner@example.net</t>
+          <t>jacksonpamela@example.net</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>05855 Carpenter Estate
-Flynnside, MT 57856</t>
+          <t>6676 Renee Forks Suite 935
+North Andrewton, UT 24133</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jennifer Miller</t>
+          <t>Vincent Cunningham</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>caintracy@example.org</t>
+          <t>stevensmegan@example.org</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4320 Deborah Fort
-Lake Jamesstad, AR 62472</t>
+          <t>3569 Jordan Meadow
+South Julieberg, DE 40789</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Andrew White</t>
+          <t>Melinda Howard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>patriciasmith@example.net</t>
+          <t>omoore@example.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>USS Lopez
-FPO AP 56474</t>
+          <t>675 Blake Locks
+Andersonton, KS 07737</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Michael Ross</t>
+          <t>Robert Roberts</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jason69@example.com</t>
+          <t>mackenziesmith@example.org</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23016 Robert Fort
-Lake Krista, WY 62597</t>
+          <t>16577 Arias Lakes Apt. 216
+East Rachelview, MP 06132</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Miguel Miranda</t>
+          <t>Sheila Mcbride</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qrodriguez@example.net</t>
+          <t>jordanwilliams@example.org</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>659 Joseph Mill Apt. 958
-North Nicholas, NM 86122</t>
+          <t>15645 James Key Suite 129
+Phillipsborough, CA 35729</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brandon Spears</t>
+          <t>Laura Ross</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vbowman@example.com</t>
+          <t>sarahkelly@example.net</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>USNS Collins
-FPO AE 10342</t>
+          <t>6595 Ross Field
+Robinstad, ME 40689</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jennifer Vega</t>
+          <t>Tyler Smith</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>anthony29@example.net</t>
+          <t>eramos@example.org</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>649 Hamilton Club Suite 910
-New Matthewberg, OK 05744</t>
+          <t>38876 Richard Ranch
+Randallberg, KS 39759</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Joshua Bass</t>
+          <t>Sandra Rogers</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>melissarogers@example.org</t>
+          <t>johnmiller@example.org</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33208 Collier Track
-East Brooke, SC 34574</t>
+          <t>866 Natalie Isle Apt. 363
+Port Rachelfort, AK 52191</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mrs. Rachael Huffman</t>
+          <t>Shelia Walls</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>dana23@example.org</t>
+          <t>hatfieldgeorge@example.org</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>793 Robinson Locks Suite 642
-Lake Kelly, TX 24649</t>
+          <t>191 Burton Fords Apt. 125
+North Crystal, IL 95603</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Steven Gomez</t>
+          <t>Dustin Robinson</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>murphykaren@example.org</t>
+          <t>cwilliams@example.org</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07967 Micheal Fall Apt. 204
-Leonardville, NE 35055</t>
+          <t>PSC 1764, Box 1694
+APO AE 30399</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terry Carrillo</t>
+          <t>Andrew Simon</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bestrada@example.com</t>
+          <t>rwilson@example.org</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21148 Danielle Trafficway
-East Austin, SC 21541</t>
+          <t>Unit 5330 Box 6681
+DPO AP 74958</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jessica Payne</t>
+          <t>John Bartlett</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>monicavang@example.net</t>
+          <t>franciscoallen@example.com</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>67136 Ashley Ranch Apt. 621
-Zacharyton, AZ 92511</t>
+          <t>159 Chloe Key
+Stevensside, PR 90218</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Laura Perez</t>
+          <t>Kathryn Bennett</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>donaldking@example.net</t>
+          <t>burtonkaren@example.org</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>972 Mitchell Underpass Suite 784
-Smithshire, HI 30425</t>
+          <t>987 Kimberly Crest
+West Elizabeth, DC 38753</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daniel Munoz</t>
+          <t>Barbara Lewis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>burkenathan@example.com</t>
+          <t>bryantteresa@example.net</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7010 Haley Way
-Garciamouth, NH 21909</t>
+          <t>08113 Sampson Fort
+East Lindsay, TN 57807</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Joan Reid</t>
+          <t>Joan Castillo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>jeanbrown@example.com</t>
+          <t>cochranmichael@example.org</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Unit 0632 Box 4467
-DPO AE 82725</t>
+          <t>4616 Martinez Coves Apt. 482
+New Joannburgh, MD 98843</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Michael Newman</t>
+          <t>Randy Hernandez</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nwilson@example.com</t>
+          <t>rgalvan@example.com</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PSC 1474, Box 2264
-APO AA 26538</t>
+          <t>65589 Arroyo Square Suite 936
+North John, SD 12529</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Troy Bradshaw</t>
+          <t>Brandon Atkinson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>christopherskinner@example.com</t>
+          <t>xvang@example.net</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1980 Mckee Parkways
-Greerborough, NV 15846</t>
+          <t>05421 Williamson Keys Suite 674
+Joshuaburgh, OH 47173</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Joshua Mendoza</t>
+          <t>Tracy Mendoza</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>myersjeffrey@example.net</t>
+          <t>esilva@example.org</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0277 Martin Causeway Suite 243
-North Teresashire, UT 28690</t>
+          <t>4477 Wilson Valleys Apt. 471
+Kellyview, CO 95474</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Robin Coleman</t>
+          <t>Darrell Taylor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jeremy74@example.com</t>
+          <t>savageelizabeth@example.org</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PSC 1157, Box 8845
-APO AA 27751</t>
+          <t>7780 Jeremiah Lights Suite 626
+Lake Tanya, MD 66730</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>William Hicks</t>
+          <t>Heather Paul</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>felicia89@example.org</t>
+          <t>zrussell@example.net</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3713 Elizabeth Corners
-South Jessica, CA 49356</t>
+          <t>63548 Robinson Pike
+North Brooke, MS 10316</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>John Hernandez</t>
+          <t>Andrea Woods</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>frenchcolleen@example.com</t>
+          <t>sean74@example.com</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8301 Katelyn Spur Apt. 296
-East Todd, WA 17534</t>
+          <t>44838 Delgado Track
+Devinmouth, ND 58795</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Stephanie Nichols</t>
+          <t>Rebecca Lopez</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>deborah66@example.com</t>
+          <t>daniellebishop@example.net</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>874 Carrillo Via Suite 234
-Douglasberg, NH 58638</t>
+          <t>58462 Levine Neck Apt. 193
+Watsonbury, HI 89775</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sarah Roy</t>
+          <t>John Mccoy</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cynthia99@example.org</t>
+          <t>ddavis@example.org</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6987 Ferguson Inlet Suite 500
-East Valerie, KY 33288</t>
+          <t>1033 Christopher Ports Suite 459
+North Richard, GU 11934</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Michael Bates</t>
+          <t>Travis Floyd DDS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bradfordjoshua@example.org</t>
+          <t>hannahstrickland@example.org</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>89592 Holly Overpass Apt. 530
-Lake Rebeccaberg, KY 54083</t>
+          <t>80706 Williams Manors Suite 170
+Wrightmouth, NE 39316</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sandra Mitchell</t>
+          <t>Jessica Robles</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lindseyjones@example.org</t>
+          <t>thomaszachary@example.org</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>971 Flynn Ford
-Jackiehaven, SC 92215</t>
+          <t>88821 Kimberly Locks
+North Luis, ME 83098</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cathy Howard</t>
+          <t>Bonnie Gallegos</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>clintonherrera@example.net</t>
+          <t>nancylarsen@example.net</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>046 Gabrielle Shoal
-Elliottview, ME 10144</t>
+          <t>18754 Jones Fall
+Anamouth, VA 50718</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Elizabeth Vance</t>
+          <t>Sarah Lee</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>trujillowanda@example.com</t>
+          <t>robertsnatalie@example.com</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0514 Justin Harbor
-Lopezmouth, CA 08205</t>
+          <t>PSC 4551, Box 7753
+APO AP 20935</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Derek Ward</t>
+          <t>Zachary Cox</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>julie32@example.com</t>
+          <t>victoriavargas@example.org</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0823 Holmes Neck
-South Jennifer, RI 43070</t>
+          <t>162 Phillips Trace
+South Timothyfurt, FL 93216</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ryan Campbell</t>
+          <t>Caitlyn Ayala</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>codymitchell@example.net</t>
+          <t>nicolemckay@example.com</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1827 Victoria Spur Apt. 332
-Tinaburgh, VA 97777</t>
+          <t>60251 Margaret Trail
+New Jamesside, PA 56821</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Anthony White</t>
+          <t>Laura Ellis</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>andreabarton@example.org</t>
+          <t>bryan04@example.com</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>53449 Christina Glen Suite 309
-Jacksonview, NY 64239</t>
+          <t>17264 Deborah Harbor
+North Christineshire, KY 23825</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Russell Holloway</t>
+          <t>William Serrano DVM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>jbarnes@example.org</t>
+          <t>walshbrenda@example.org</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Unit 0541 Box 5858
-DPO AE 56904</t>
+          <t>231 Sanchez Ferry
+Lake Kristina, OH 68586</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>James Davis</t>
+          <t>David Bean</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>richard71@example.org</t>
+          <t>ewall@example.org</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>8489 Thompson Summit Suite 749
-Rosaleshaven, ID 71172</t>
+          <t>Unit 0591 Box 7610
+DPO AA 06892</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hunter Mayer</t>
+          <t>Courtney Trujillo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>smithcandace@example.org</t>
+          <t>dgreene@example.net</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>75681 Rodriguez Bypass Apt. 480
-New Aprilton, ND 28879</t>
+          <t>46855 Alyssa Extensions Apt. 392
+Russellburgh, RI 99173</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Donna Hendrix</t>
+          <t>Mathew Jenkins</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>sharonthompson@example.net</t>
+          <t>julie94@example.net</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>03753 Kara Brooks Apt. 997
-Shannonbury, AL 33810</t>
+          <t>20375 Timothy Shoals Apt. 870
+North Joshua, CA 95995</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lauren King</t>
+          <t>Jonathan Hall DVM</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>allentiffany@example.com</t>
+          <t>mariajackson@example.net</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2146 Logan Tunnel
-Patrickfort, WI 87635</t>
+          <t>09311 Dickerson Ramp
+Lake Sonya, PA 59329</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Zachary Caldwell</t>
+          <t>Joseph Brown</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>david04@example.com</t>
+          <t>mercadomichael@example.org</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>USNV Wilson
-FPO AP 93870</t>
+          <t>18209 Kelly Stream
+South Gina, KS 88891</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Stephen Meadows</t>
+          <t>Kristy Chase</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>qnichols@example.net</t>
+          <t>darlene05@example.com</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>9353 Matthew Rapids
-Adamsberg, NJ 29741</t>
+          <t>3293 Fischer Wall Apt. 759
+Robertland, WA 81423</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Andrew Soto</t>
+          <t>Kenneth Jacobs</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>miguel97@example.com</t>
+          <t>jenniferwang@example.org</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3115 Cheryl Spurs
-Port Joanshire, CT 03982</t>
+          <t>43553 Taylor Ford
+Lake Dawn, KS 30768</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Stephanie Andrews</t>
+          <t>Adam Jones</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dsmith@example.org</t>
+          <t>aweeks@example.org</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PSC 4048, Box 8968
-APO AA 45956</t>
+          <t>775 Francisco Camp Suite 888
+Garciabury, WV 45466</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Joseph Green</t>
+          <t>Steven Nicholson</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pallen@example.net</t>
+          <t>fmathews@example.net</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>174 Andrew Lodge Suite 815
-Cynthiamouth, WI 92806</t>
+          <t>812 Olivia Circles
+Jorgeborough, FM 34837</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jaclyn Willis</t>
+          <t>Heidi Diaz</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>alexis48@example.net</t>
+          <t>uharrington@example.net</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4130 Sarah Isle Suite 997
-South Moniqueburgh, MS 64390</t>
+          <t>388 Amy Extension Apt. 122
+South Belindachester, CO 39849</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Elizabeth Brady</t>
+          <t>Rebecca Hughes</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>claudia23@example.net</t>
+          <t>lewisangela@example.org</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5477 Brandon Shores
-Cummingsshire, KS 93477</t>
+          <t>0972 Jessica Trace
+Port Jenniferhaven, NY 93790</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Deborah Black</t>
+          <t>Jason Hayes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>emilyarmstrong@example.com</t>
+          <t>jennifermoran@example.org</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>836 Reyes Spurs Apt. 934
-Aaronville, NJ 09225</t>
+          <t>PSC 8410, Box 8886
+APO AP 82851</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Joseph Howell</t>
+          <t>Linda Salas</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>jenniferlarson@example.org</t>
+          <t>kevingillespie@example.org</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6738 Angela Fall
-Robertfort, MD 31235</t>
+          <t>884 Mitchell Ville Apt. 025
+Sanchezhaven, MI 66888</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Katherine Black</t>
+          <t>Jennifer Sanders DDS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>johnsonderrick@example.net</t>
+          <t>joe52@example.com</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>USCGC Garrett
-FPO AA 16796</t>
+          <t>01033 Lauren Stream Apt. 858
+Mossfort, CT 47556</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Michael Walters</t>
+          <t>Brandon King</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>martinezjohn@example.net</t>
+          <t>ryankaren@example.com</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>78703 Alexander Greens Apt. 538
-West Howardview, MI 37408</t>
+          <t>1396 Jonathan Mall
+South Donna, LA 05552</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Susan Horn</t>
+          <t>Jack Haas</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>danielle23@example.com</t>
+          <t>pottsjuan@example.org</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>319 Williams Springs Apt. 907
-North Shaneside, VI 84970</t>
+          <t>43288 Arnold Highway Suite 113
+Lake David, AS 68290</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Kathleen Todd</t>
+          <t>Terrance Hansen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>christopherwilson@example.org</t>
+          <t>valdezraymond@example.com</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>24891 Hunt Run
-Lewisland, PR 17939</t>
+          <t>3019 Jeffrey Road Suite 949
+Stephenborough, TN 06259</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brian Willis</t>
+          <t>Michelle Turner</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mary26@example.net</t>
+          <t>jwhite@example.org</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>80986 Sanchez Parkways
-New Stephaniechester, DE 92409</t>
+          <t>8104 Johnson Parkways Apt. 625
+Christopherburgh, WA 46400</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Joe Simmons</t>
+          <t>Eric Boone</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ramireztracey@example.com</t>
+          <t>erinpierce@example.net</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>989 Roberts Path Suite 621
-North Scott, NJ 55976</t>
+          <t>836 Roberts Harbor
+Nicholasfort, NC 67243</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Debbie Kent DVM</t>
+          <t>Paula Mccarthy</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>collinskimberly@example.org</t>
+          <t>jacksonjason@example.net</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>980 Dwayne Square
-Coxbury, MP 11926</t>
+          <t>320 Sweeney Island
+Port Tiffanyton, SC 56349</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Emily Mooney</t>
+          <t>Amber George</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>russellmontgomery@example.com</t>
+          <t>lfowler@example.com</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>USS Shelton
-FPO AA 44309</t>
+          <t>403 Robert Falls
+Juliaport, NH 10044</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Richard Chen</t>
+          <t>Hayley Compton</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tanderson@example.net</t>
+          <t>jcole@example.org</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9264 Ellis Point
-Debrabury, LA 35444</t>
+          <t>8087 Christine Grove Suite 526
+Jaredfurt, MI 05654</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robin Nguyen</t>
+          <t>Janet Davis</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>kevinweaver@example.com</t>
+          <t>amyparks@example.net</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1089 Angela Roads Apt. 476
-Rileyton, PW 33558</t>
+          <t>1468 Floyd Mountains
+Lake Ashleyfort, AK 68404</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>David Kelly</t>
+          <t>Justin Myers</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>steve03@example.com</t>
+          <t>xclark@example.org</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Unit 4984 Box 9097
-DPO AE 18907</t>
+          <t>098 Robert Village
+North Craigland, NY 76742</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jacob Mitchell</t>
+          <t>Dr. Jo Fox</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>johnhurst@example.net</t>
+          <t>gshelton@example.com</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>798 Meghan Dale Apt. 734
-Mitchellland, CO 69542</t>
+          <t>43045 Shelley Pines Apt. 126
+Barneschester, MN 91215</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Jacqueline Walker</t>
+          <t>Richard Perez</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>karicox@example.org</t>
+          <t>vanessa11@example.net</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>980 Tyler Plain
-Janethaven, MD 67429</t>
+          <t>2510 Burns Fords
+Oscarchester, NC 46965</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Joseph Diaz</t>
+          <t>Danielle Lewis</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hdavidson@example.org</t>
+          <t>qramirez@example.com</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>389 Shelby Locks Suite 734
-Lake Heather, UT 22899</t>
+          <t>6176 Morrison Rapids
+Weaverhaven, RI 72294</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mr. Edgar Leach</t>
+          <t>Kathy Jones</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>michael97@example.org</t>
+          <t>brian43@example.org</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>03319 Jenkins Squares
-Wilsonberg, HI 44692</t>
+          <t>606 Andrew Rapids Suite 185
+Port Andrewland, CA 41838</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>David Smith</t>
+          <t>Daniel Bates</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dylanwilson@example.org</t>
+          <t>fmurphy@example.com</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>740 Phillip Villages Suite 048
-Kirbyberg, CO 98584</t>
+          <t>24732 Miller Mountain
+New Amy, WA 76347</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Michael Boyer</t>
+          <t>Shannon Cook PhD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>rhill@example.com</t>
+          <t>mitchell80@example.org</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>23574 Mariah Meadows
-West Jason, TN 87677</t>
+          <t>34364 Ashley Crest
+North Glen, DC 64324</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Carla Martinez</t>
+          <t>Lauren Sweeney</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>leonardconrad@example.net</t>
+          <t>zvasquez@example.org</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>8604 Mccormick Brook
-Lake Heather, AS 67255</t>
+          <t>7856 Megan Circles Suite 519
+Anthonymouth, WI 20460</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Derek Gill</t>
+          <t>Jimmy Salazar</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>freed@example.com</t>
+          <t>btrujillo@example.org</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>249 Fry Springs
-New Christopherborough, MT 69863</t>
+          <t>66088 Charles Locks Suite 242
+Michaelmouth, VT 45489</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Erin Allen</t>
+          <t>Ryan Nguyen</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>timothycraig@example.net</t>
+          <t>frances82@example.com</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PSC 6012, Box 5745
-APO AE 15666</t>
+          <t>584 Smith Passage Suite 292
+Jonathanberg, NJ 15632</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Danielle Olson</t>
+          <t>Tracey Vasquez MD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>josepharmstrong@example.com</t>
+          <t>natalieflowers@example.net</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>8209 Jean Divide Suite 001
-Hannahhaven, MT 30114</t>
+          <t>USNV Villanueva
+FPO AE 49182</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Amber Garcia</t>
+          <t>Christina Luna</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>patrickbrenda@example.com</t>
+          <t>rileybridget@example.org</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unit 7549 Box 6188
-DPO AA 02952</t>
+          <t>81480 Alyssa Drive
+Port Christopher, KS 64671</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gary Fitzgerald</t>
+          <t>Monica Zimmerman</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>philip54@example.org</t>
+          <t>carlsonariel@example.net</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>203 Jennifer Pines
-West Johnstad, NH 93682</t>
+          <t>92790 Brenda Burg Suite 193
+Robinview, NM 83415</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Kyle Perez</t>
+          <t>Shane Mccarty</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>smithrobert@example.org</t>
+          <t>robertbrennan@example.net</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>813 Brian Stravenue Apt. 437
-Lake Johntown, TX 21798</t>
+          <t>825 Townsend Passage Apt. 679
+South Katieland, CA 79224</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Nicholas Glenn</t>
+          <t>Anthony Taylor</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>jamespeterson@example.com</t>
+          <t>tneal@example.net</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3665 Williams Key
-North Robert, WV 62780</t>
+          <t>827 Scott Valley
+Justinside, VA 83528</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Dennis Jarvis</t>
+          <t>Victoria Scott</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>kgomez@example.org</t>
+          <t>robert50@example.net</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>027 Hurst Locks Suite 731
-North Laurashire, PW 79673</t>
+          <t>61700 Rhonda Forge Suite 071
+Lake Alexisville, CA 30819</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Brian Hernandez</t>
+          <t>Dustin Sullivan PhD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>kerrcraig@example.net</t>
+          <t>meyermichele@example.net</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>USCGC Harvey
-FPO AP 72864</t>
+          <t>9722 Martin Corner
+Barnesshire, CT 72014</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Carol Sawyer</t>
+          <t>Anthony Espinoza</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cainchristine@example.com</t>
+          <t>kristizimmerman@example.net</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>98073 Brandon Islands Suite 109
-North Brandon, ME 83945</t>
+          <t>61997 Henry Points Suite 817
+New Sharonside, KY 56818</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Robert Stokes</t>
+          <t>Richard Frederick</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>emily86@example.com</t>
+          <t>stephenmartinez@example.net</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>412 Davis Pass
-Levystad, AS 63443</t>
+          <t>0876 Michelle Flats
+East Jennifer, SD 94302</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Thomas Martinez</t>
+          <t>Ryan Jenkins PhD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>aburgess@example.net</t>
+          <t>nicolehenderson@example.com</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>208 Carpenter Bypass
-Sandersside, FL 71663</t>
+          <t>7669 Larry Fords Suite 713
+Darrenton, NJ 38721</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Maurice Rogers</t>
+          <t>Tracy Avila</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>leachcolin@example.org</t>
+          <t>matthew30@example.net</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>167 Christina Causeway Apt. 878
-Port Peterfurt, ME 96312</t>
+          <t>77111 Gutierrez Divide
+Justinmouth, MP 02176</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Marie Smith</t>
+          <t>Ronald Tran</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>williamstrevor@example.org</t>
+          <t>patrickcarter@example.org</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>11741 Cardenas Ridges Apt. 904
-Beltranside, MT 78726</t>
+          <t>179 Charles Inlet
+North Jasmin, PA 62074</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lindsey Hernandez</t>
+          <t>Scott Baker</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>petersroy@example.com</t>
+          <t>kcruz@example.org</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Unit 4254 Box 6410
-DPO AP 74799</t>
+          <t>8628 Nelson Way
+East Lorettaberg, MP 16367</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Abigail Olson</t>
+          <t>Carrie Parrish</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>joan18@example.net</t>
+          <t>jeffrey76@example.com</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>19958 Davis Summit
-New Barbara, OR 03626</t>
+          <t>4648 Ann Parkways
+Scottberg, VT 46714</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lisa Park</t>
+          <t>Stephanie Hart</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>debbie94@example.com</t>
+          <t>bryan55@example.com</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>5455 West Corners
-West David, FL 81197</t>
+          <t>5753 Samantha Trace
+North Michaelchester, KS 15988</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Michelle Mcintyre</t>
+          <t>Danielle Valencia</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adavis@example.org</t>
+          <t>zhopkins@example.com</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>15439 Matthew Trafficway Apt. 183
-South Kristin, MA 83672</t>
+          <t>18942 Sara Forge Apt. 265
+Rossmouth, OK 62601</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Daniel Hernandez</t>
+          <t>Erik Benitez</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bsmith@example.com</t>
+          <t>hayescindy@example.org</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>7532 Perez Overpass Apt. 124
-Brittanychester, AS 17103</t>
+          <t>0679 Jesse Trace
+Lake Jason, ME 32418</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tyrone Lopez</t>
+          <t>Linda Cline</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>beckermark@example.com</t>
+          <t>zwilson@example.net</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0040 Armstrong Knolls
-Martinland, FM 78316</t>
+          <t>906 Lewis Brook Suite 940
+South Christophermouth, GU 77164</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kevin Pope</t>
+          <t>Michael Sweeney</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>lukenguyen@example.net</t>
+          <t>tapialisa@example.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PSC 2816, Box 4552
-APO AE 69480</t>
+          <t>102 Osborn Motorway Apt. 934
+Lake Shanefort, WI 39323</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Travis Burton</t>
+          <t>Christina Melton</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>hodonnell@example.net</t>
+          <t>virginia03@example.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>81631 Victoria Expressway
-East Jamieburgh, GU 67452</t>
+          <t>48975 Ricky Flats
+North Karen, MS 33903</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bryan Woodard</t>
+          <t>David Gallagher</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tjohnson@example.com</t>
+          <t>eevans@example.net</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>9398 Campbell Rest Apt. 437
-West Cesar, KS 83716</t>
+          <t>43402 Lori Landing Apt. 308
+New Meaganton, CA 44141</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melanie Moore</t>
+          <t>Bobby Nunez</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>cunninghamluis@example.net</t>
+          <t>adriandaniel@example.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0497 Walker Station Apt. 503
-North Aprilchester, UT 40415</t>
+          <t>70616 Ronald Locks
+East Josephville, RI 22635</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Richard Morales</t>
+          <t>Paula Gray</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>brooksanthony@example.org</t>
+          <t>danielbarnes@example.net</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8818 Alexander Corners Suite 562
-Theresabury, KS 84252</t>
+          <t>PSC 2147, Box 5280
+APO AP 10270</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Michael Webster</t>
+          <t>Kimberly Stevenson</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>breannachristensen@example.com</t>
+          <t>daniellee@example.net</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8271 Sarah Extensions Suite 413
-East Judyberg, DE 87354</t>
+          <t>94009 Glenda Trail Suite 595
+New Jenniferfort, RI 95314</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Austin Gonzales</t>
+          <t>Derek Hubbard</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>urodriguez@example.org</t>
+          <t>justinward@example.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>443 Henry Knoll
-Smithport, MA 99116</t>
+          <t>57208 Kelly Ranch Suite 246
+Taylorberg, NV 35205</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Alexander Mcconnell</t>
+          <t>David Flynn</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lowerybetty@example.net</t>
+          <t>carla56@example.net</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PSC 8367, Box 5586
-APO AP 09692</t>
+          <t>PSC 3722, Box 4309
+APO AP 89231</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Julie Foster</t>
+          <t>Richard Shah</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>rodriguezallen@example.net</t>
+          <t>rodney77@example.net</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>08078 Margaret Ways Apt. 365
-East Caitlyn, FL 14792</t>
+          <t>69085 Olson Park
+Port Frankfurt, PR 97760</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Andrew Jackson</t>
+          <t>Jacob White</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>deleonjeffrey@example.net</t>
+          <t>amywarren@example.net</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01839 Aaron Point Apt. 412
-New Steven, MH 90137</t>
+          <t>Unit 8780 Box 2587
+DPO AA 47916</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mr. Frank Johnson</t>
+          <t>Wayne Rojas</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>schwartzmark@example.com</t>
+          <t>sheiladavis@example.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>87477 Owens Drive
-East Pamela, GA 64897</t>
+          <t>4012 Melanie Plain Apt. 751
+Walkerport, NV 06286</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Joseph Lee Jr.</t>
+          <t>Kristin Kline</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>lauren29@example.net</t>
+          <t>yvonne46@example.net</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>61361 Robert Wells Suite 179
-East Jeffrey, FL 74912</t>
+          <t>02704 Harold Squares
+Roymouth, NV 73973</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Arthur Walker</t>
+          <t>Tina Garner</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>danielle86@example.org</t>
+          <t>rmurphy@example.org</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>7595 Benitez Village
-Khanbury, WY 88448</t>
+          <t>732 Hill Lane Apt. 651
+New Johnville, VT 90561</t>
         </is>
       </c>
     </row>
